--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,18 +415,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>sales</v>
+        <v>bike sale</v>
       </c>
       <c r="B2">
-        <v>23000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45689.00011574074</v>
+        <v>30000</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-05-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>interest from bank</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-05-03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>salary</v>
+      </c>
+      <c r="B4">
+        <v>20000</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-05-01</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>